--- a/biology/Botanique/Scorodophloeus_zenkeri/Scorodophloeus_zenkeri.xlsx
+++ b/biology/Botanique/Scorodophloeus_zenkeri/Scorodophloeus_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scorodophloeus zenkeri est une espèce d'arbres tropicaux. Elle appartient à la famille des Fabaceae et au genre Scorodophloeus. Ses fleurs sont blanches[2]. Il est plus connu en français sous le nom d'arbre d'ail tropical.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scorodophloeus zenkeri est une espèce d'arbres tropicaux. Elle appartient à la famille des Fabaceae et au genre Scorodophloeus. Ses fleurs sont blanches. Il est plus connu en français sous le nom d'arbre d'ail tropical.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste et collecteur allemand Georg August Zenker.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été étudiée et classifiée par le botaniste allemand Hermann_Harms. On peut trouver la description complète qu'il en a faite dans son ouvrage Botanische Jahrbücher für Systematik, Pflanzengeschichte und Pflanzengeographie, publié en 1902[2].
-Scorodophloeus zenkeri mesure entre 10 m et 15 m de haut. Son tronc a un diamètre compris entre 40 cm et 100 cm[3].
-On le trouve dans les forêts à sol sec au Cameroun, en Guinée équatoriale, au Gabon, au Congo, en R.D. du Congo et en Angola[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été étudiée et classifiée par le botaniste allemand Hermann_Harms. On peut trouver la description complète qu'il en a faite dans son ouvrage Botanische Jahrbücher für Systematik, Pflanzengeschichte und Pflanzengeographie, publié en 1902.
+Scorodophloeus zenkeri mesure entre 10 m et 15 m de haut. Son tronc a un diamètre compris entre 40 cm et 100 cm.
+On le trouve dans les forêts à sol sec au Cameroun, en Guinée équatoriale, au Gabon, au Congo, en R.D. du Congo et en Angola.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois, l’écorce, les jeunes feuilles et les graines servent par endroits de condiments et donnent un goût d’ail aux aliments. Une fois cuites, les jeunes feuilles sont consommées comme légume[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois, l’écorce, les jeunes feuilles et les graines servent par endroits de condiments et donnent un goût d’ail aux aliments. Une fois cuites, les jeunes feuilles sont consommées comme légume.
 </t>
         </is>
       </c>
